--- a/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H2">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.47957623264481</v>
+        <v>0.128483</v>
       </c>
       <c r="N2">
-        <v>4.47957623264481</v>
+        <v>0.385449</v>
       </c>
       <c r="O2">
-        <v>0.5699147196687956</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="P2">
-        <v>0.5699147196687956</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="Q2">
-        <v>13.38454515854585</v>
+        <v>0.6533118573683333</v>
       </c>
       <c r="R2">
-        <v>13.38454515854585</v>
+        <v>5.879806716315001</v>
       </c>
       <c r="S2">
-        <v>0.2188639348947446</v>
+        <v>0.008071391594110197</v>
       </c>
       <c r="T2">
-        <v>0.2188639348947446</v>
+        <v>0.008071391594110197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H3">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I3">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J3">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38050542176149</v>
+        <v>4.550946666666667</v>
       </c>
       <c r="N3">
-        <v>3.38050542176149</v>
+        <v>13.65284</v>
       </c>
       <c r="O3">
-        <v>0.4300852803312044</v>
+        <v>0.5596822223772701</v>
       </c>
       <c r="P3">
-        <v>0.4300852803312044</v>
+        <v>0.5596822223772699</v>
       </c>
       <c r="Q3">
-        <v>10.10062673932027</v>
+        <v>23.14070670504445</v>
       </c>
       <c r="R3">
-        <v>10.10062673932027</v>
+        <v>208.2663603454</v>
       </c>
       <c r="S3">
-        <v>0.1651653371021899</v>
+        <v>0.2858936409531002</v>
       </c>
       <c r="T3">
-        <v>0.1651653371021899</v>
+        <v>0.2858936409531001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.66724666461404</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H4">
-        <v>2.66724666461404</v>
+        <v>15.254435</v>
       </c>
       <c r="I4">
-        <v>0.3428157954811453</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J4">
-        <v>0.3428157954811453</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.47957623264481</v>
+        <v>3.451875</v>
       </c>
       <c r="N4">
-        <v>4.47957623264481</v>
+        <v>10.355625</v>
       </c>
       <c r="O4">
-        <v>0.5699147196687956</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="P4">
-        <v>0.5699147196687956</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="Q4">
-        <v>11.94813476540619</v>
+        <v>17.552134271875</v>
       </c>
       <c r="R4">
-        <v>11.94813476540619</v>
+        <v>157.969208446875</v>
       </c>
       <c r="S4">
-        <v>0.1953757679796721</v>
+        <v>0.2168491929587505</v>
       </c>
       <c r="T4">
-        <v>0.1953757679796721</v>
+        <v>0.2168491929587505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.66724666461404</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H5">
-        <v>2.66724666461404</v>
+        <v>8.06705</v>
       </c>
       <c r="I5">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J5">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.38050542176149</v>
+        <v>0.128483</v>
       </c>
       <c r="N5">
-        <v>3.38050542176149</v>
+        <v>0.385449</v>
       </c>
       <c r="O5">
-        <v>0.4300852803312044</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="P5">
-        <v>0.4300852803312044</v>
+        <v>0.01580103135560779</v>
       </c>
       <c r="Q5">
-        <v>9.016641810903012</v>
+        <v>0.3454929283833333</v>
       </c>
       <c r="R5">
-        <v>9.016641810903012</v>
+        <v>3.10943635545</v>
       </c>
       <c r="S5">
-        <v>0.1474400275014732</v>
+        <v>0.0042684189587662</v>
       </c>
       <c r="T5">
-        <v>0.1474400275014732</v>
+        <v>0.0042684189587662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.12525674807197</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H6">
-        <v>2.12525674807197</v>
+        <v>8.06705</v>
       </c>
       <c r="I6">
-        <v>0.27315493252192</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J6">
-        <v>0.27315493252192</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.47957623264481</v>
+        <v>4.550946666666667</v>
       </c>
       <c r="N6">
-        <v>4.47957623264481</v>
+        <v>13.65284</v>
       </c>
       <c r="O6">
-        <v>0.5699147196687956</v>
+        <v>0.5596822223772701</v>
       </c>
       <c r="P6">
-        <v>0.5699147196687956</v>
+        <v>0.5596822223772699</v>
       </c>
       <c r="Q6">
-        <v>9.520249616931196</v>
+        <v>12.23757143577778</v>
       </c>
       <c r="R6">
-        <v>9.520249616931196</v>
+        <v>110.138142922</v>
       </c>
       <c r="S6">
-        <v>0.1556750167943788</v>
+        <v>0.1511900176080404</v>
       </c>
       <c r="T6">
-        <v>0.1556750167943788</v>
+        <v>0.1511900176080403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.12525674807197</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H7">
-        <v>2.12525674807197</v>
+        <v>8.06705</v>
       </c>
       <c r="I7">
-        <v>0.27315493252192</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J7">
-        <v>0.27315493252192</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.38050542176149</v>
+        <v>3.451875</v>
       </c>
       <c r="N7">
-        <v>3.38050542176149</v>
+        <v>10.355625</v>
       </c>
       <c r="O7">
-        <v>0.4300852803312044</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="P7">
-        <v>0.4300852803312044</v>
+        <v>0.4245167462671222</v>
       </c>
       <c r="Q7">
-        <v>7.184441959492488</v>
+        <v>9.282149406249999</v>
       </c>
       <c r="R7">
-        <v>7.184441959492488</v>
+        <v>83.53934465624999</v>
       </c>
       <c r="S7">
-        <v>0.1174799157275412</v>
+        <v>0.1146770288154159</v>
       </c>
       <c r="T7">
-        <v>0.1174799157275412</v>
+        <v>0.1146770288154159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.180498333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.541495</v>
+      </c>
+      <c r="I8">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="J8">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.128483</v>
+      </c>
+      <c r="N8">
+        <v>0.385449</v>
+      </c>
+      <c r="O8">
+        <v>0.01580103135560779</v>
+      </c>
+      <c r="P8">
+        <v>0.01580103135560779</v>
+      </c>
+      <c r="Q8">
+        <v>0.2801569673616667</v>
+      </c>
+      <c r="R8">
+        <v>2.521412706255</v>
+      </c>
+      <c r="S8">
+        <v>0.003461220802731395</v>
+      </c>
+      <c r="T8">
+        <v>0.003461220802731395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.180498333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.541495</v>
+      </c>
+      <c r="I9">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="J9">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.550946666666667</v>
+      </c>
+      <c r="N9">
+        <v>13.65284</v>
+      </c>
+      <c r="O9">
+        <v>0.5596822223772701</v>
+      </c>
+      <c r="P9">
+        <v>0.5596822223772699</v>
+      </c>
+      <c r="Q9">
+        <v>9.923331621755558</v>
+      </c>
+      <c r="R9">
+        <v>89.30998459580002</v>
+      </c>
+      <c r="S9">
+        <v>0.1225985638161295</v>
+      </c>
+      <c r="T9">
+        <v>0.1225985638161295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.180498333333333</v>
+      </c>
+      <c r="H10">
+        <v>6.541495</v>
+      </c>
+      <c r="I10">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="J10">
+        <v>0.2190503091118167</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.451875</v>
+      </c>
+      <c r="N10">
+        <v>10.355625</v>
+      </c>
+      <c r="O10">
+        <v>0.4245167462671222</v>
+      </c>
+      <c r="P10">
+        <v>0.4245167462671222</v>
+      </c>
+      <c r="Q10">
+        <v>7.526807684375</v>
+      </c>
+      <c r="R10">
+        <v>67.74126915937501</v>
+      </c>
+      <c r="S10">
+        <v>0.09299052449295578</v>
+      </c>
+      <c r="T10">
+        <v>0.09299052449295576</v>
       </c>
     </row>
   </sheetData>
